--- a/data/data.xlsx
+++ b/data/data.xlsx
@@ -1,390 +1,397 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26227"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\FILab\BRL\data\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C5780BA-3538-4659-B86B-E039E2CEF176}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="51495" yWindow="0" windowWidth="19410" windowHeight="20985" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="120">
   <si>
+    <t>2023-04-24 01시</t>
+  </si>
+  <si>
+    <t>2023-04-24 02시</t>
+  </si>
+  <si>
+    <t>2023-04-24 03시</t>
+  </si>
+  <si>
+    <t>2023-04-24 04시</t>
+  </si>
+  <si>
+    <t>2023-04-24 05시</t>
+  </si>
+  <si>
+    <t>2023-04-24 06시</t>
+  </si>
+  <si>
+    <t>2023-04-24 07시</t>
+  </si>
+  <si>
+    <t>2023-04-24 08시</t>
+  </si>
+  <si>
+    <t>2023-04-24 09시</t>
+  </si>
+  <si>
+    <t>2023-04-24 10시</t>
+  </si>
+  <si>
+    <t>2023-04-24 11시</t>
+  </si>
+  <si>
+    <t>2023-04-24 12시</t>
+  </si>
+  <si>
+    <t>2023-04-24 13시</t>
+  </si>
+  <si>
+    <t>2023-04-24 14시</t>
+  </si>
+  <si>
+    <t>2023-04-24 15시</t>
+  </si>
+  <si>
+    <t>2023-04-24 16시</t>
+  </si>
+  <si>
+    <t>2023-04-24 17시</t>
+  </si>
+  <si>
+    <t>2023-04-24 18시</t>
+  </si>
+  <si>
+    <t>2023-04-24 19시</t>
+  </si>
+  <si>
+    <t>2023-04-24 20시</t>
+  </si>
+  <si>
+    <t>2023-04-24 21시</t>
+  </si>
+  <si>
+    <t>2023-04-24 22시</t>
+  </si>
+  <si>
+    <t>2023-04-24 23시</t>
+  </si>
+  <si>
+    <t>2023-04-25 00시</t>
+  </si>
+  <si>
+    <t>2023-04-25 01시</t>
+  </si>
+  <si>
+    <t>2023-04-25 02시</t>
+  </si>
+  <si>
+    <t>2023-04-25 03시</t>
+  </si>
+  <si>
+    <t>2023-04-25 04시</t>
+  </si>
+  <si>
+    <t>2023-04-25 05시</t>
+  </si>
+  <si>
+    <t>2023-04-25 06시</t>
+  </si>
+  <si>
+    <t>2023-04-25 07시</t>
+  </si>
+  <si>
+    <t>2023-04-25 08시</t>
+  </si>
+  <si>
+    <t>2023-04-25 09시</t>
+  </si>
+  <si>
+    <t>2023-04-25 10시</t>
+  </si>
+  <si>
+    <t>2023-04-25 11시</t>
+  </si>
+  <si>
+    <t>2023-04-25 12시</t>
+  </si>
+  <si>
+    <t>2023-04-25 13시</t>
+  </si>
+  <si>
+    <t>2023-04-25 14시</t>
+  </si>
+  <si>
+    <t>2023-04-25 15시</t>
+  </si>
+  <si>
+    <t>2023-04-25 16시</t>
+  </si>
+  <si>
+    <t>2023-04-25 17시</t>
+  </si>
+  <si>
+    <t>2023-04-25 18시</t>
+  </si>
+  <si>
+    <t>2023-04-25 19시</t>
+  </si>
+  <si>
+    <t>2023-04-25 20시</t>
+  </si>
+  <si>
+    <t>2023-04-25 21시</t>
+  </si>
+  <si>
+    <t>2023-04-25 22시</t>
+  </si>
+  <si>
+    <t>2023-04-25 23시</t>
+  </si>
+  <si>
+    <t>2023-04-26 00시</t>
+  </si>
+  <si>
+    <t>2023-04-26 01시</t>
+  </si>
+  <si>
+    <t>2023-04-26 02시</t>
+  </si>
+  <si>
+    <t>2023-04-26 03시</t>
+  </si>
+  <si>
+    <t>2023-04-26 04시</t>
+  </si>
+  <si>
+    <t>2023-04-26 05시</t>
+  </si>
+  <si>
+    <t>2023-04-26 06시</t>
+  </si>
+  <si>
+    <t>2023-04-26 07시</t>
+  </si>
+  <si>
+    <t>2023-04-26 08시</t>
+  </si>
+  <si>
+    <t>2023-04-26 09시</t>
+  </si>
+  <si>
+    <t>2023-04-26 10시</t>
+  </si>
+  <si>
+    <t>2023-04-26 11시</t>
+  </si>
+  <si>
+    <t>2023-04-26 12시</t>
+  </si>
+  <si>
+    <t>2023-04-26 13시</t>
+  </si>
+  <si>
+    <t>2023-04-26 14시</t>
+  </si>
+  <si>
+    <t>2023-04-26 15시</t>
+  </si>
+  <si>
+    <t>2023-04-26 16시</t>
+  </si>
+  <si>
+    <t>2023-04-26 17시</t>
+  </si>
+  <si>
+    <t>2023-04-26 18시</t>
+  </si>
+  <si>
+    <t>2023-04-26 19시</t>
+  </si>
+  <si>
+    <t>2023-04-26 20시</t>
+  </si>
+  <si>
+    <t>2023-04-26 21시</t>
+  </si>
+  <si>
+    <t>2023-04-26 22시</t>
+  </si>
+  <si>
+    <t>2023-04-26 23시</t>
+  </si>
+  <si>
+    <t>2023-04-27 00시</t>
+  </si>
+  <si>
+    <t>2023-04-27 01시</t>
+  </si>
+  <si>
+    <t>2023-04-27 02시</t>
+  </si>
+  <si>
+    <t>2023-04-27 03시</t>
+  </si>
+  <si>
+    <t>2023-04-27 04시</t>
+  </si>
+  <si>
+    <t>2023-04-27 05시</t>
+  </si>
+  <si>
+    <t>2023-04-27 06시</t>
+  </si>
+  <si>
+    <t>2023-04-27 07시</t>
+  </si>
+  <si>
+    <t>2023-04-27 08시</t>
+  </si>
+  <si>
+    <t>2023-04-27 09시</t>
+  </si>
+  <si>
+    <t>2023-04-27 10시</t>
+  </si>
+  <si>
+    <t>2023-04-27 11시</t>
+  </si>
+  <si>
+    <t>2023-04-27 12시</t>
+  </si>
+  <si>
+    <t>2023-04-27 13시</t>
+  </si>
+  <si>
+    <t>2023-04-27 14시</t>
+  </si>
+  <si>
+    <t>2023-04-27 15시</t>
+  </si>
+  <si>
+    <t>2023-04-27 16시</t>
+  </si>
+  <si>
+    <t>2023-04-27 17시</t>
+  </si>
+  <si>
+    <t>2023-04-27 18시</t>
+  </si>
+  <si>
+    <t>2023-04-27 19시</t>
+  </si>
+  <si>
+    <t>2023-04-27 20시</t>
+  </si>
+  <si>
+    <t>2023-04-27 21시</t>
+  </si>
+  <si>
+    <t>2023-04-27 22시</t>
+  </si>
+  <si>
+    <t>2023-04-27 23시</t>
+  </si>
+  <si>
+    <t>2023-04-28 00시</t>
+  </si>
+  <si>
+    <t>2023-04-28 01시</t>
+  </si>
+  <si>
+    <t>2023-04-28 02시</t>
+  </si>
+  <si>
+    <t>2023-04-28 03시</t>
+  </si>
+  <si>
+    <t>2023-04-28 04시</t>
+  </si>
+  <si>
+    <t>2023-04-28 05시</t>
+  </si>
+  <si>
+    <t>2023-04-28 06시</t>
+  </si>
+  <si>
+    <t>2023-04-28 07시</t>
+  </si>
+  <si>
+    <t>2023-04-28 08시</t>
+  </si>
+  <si>
+    <t>2023-04-28 09시</t>
+  </si>
+  <si>
+    <t>2023-04-28 10시</t>
+  </si>
+  <si>
+    <t>2023-04-28 11시</t>
+  </si>
+  <si>
+    <t>2023-04-28 12시</t>
+  </si>
+  <si>
+    <t>2023-04-28 13시</t>
+  </si>
+  <si>
+    <t>2023-04-28 14시</t>
+  </si>
+  <si>
+    <t>2023-04-28 15시</t>
+  </si>
+  <si>
+    <t>2023-04-28 16시</t>
+  </si>
+  <si>
+    <t>2023-04-28 17시</t>
+  </si>
+  <si>
+    <t>2023-04-28 18시</t>
+  </si>
+  <si>
+    <t>2023-04-28 19시</t>
+  </si>
+  <si>
+    <t>2023-04-28 20시</t>
+  </si>
+  <si>
+    <t>2023-04-28 21시</t>
+  </si>
+  <si>
+    <t>2023-04-28 22시</t>
+  </si>
+  <si>
+    <t>2023-04-28 23시</t>
+  </si>
+  <si>
     <t>2023-04-24 00시</t>
-  </si>
-  <si>
-    <t>2023-04-24 01시</t>
-  </si>
-  <si>
-    <t>2023-04-24 02시</t>
-  </si>
-  <si>
-    <t>2023-04-24 03시</t>
-  </si>
-  <si>
-    <t>2023-04-24 04시</t>
-  </si>
-  <si>
-    <t>2023-04-24 05시</t>
-  </si>
-  <si>
-    <t>2023-04-24 06시</t>
-  </si>
-  <si>
-    <t>2023-04-24 07시</t>
-  </si>
-  <si>
-    <t>2023-04-24 08시</t>
-  </si>
-  <si>
-    <t>2023-04-24 09시</t>
-  </si>
-  <si>
-    <t>2023-04-24 10시</t>
-  </si>
-  <si>
-    <t>2023-04-24 11시</t>
-  </si>
-  <si>
-    <t>2023-04-24 12시</t>
-  </si>
-  <si>
-    <t>2023-04-24 13시</t>
-  </si>
-  <si>
-    <t>2023-04-24 14시</t>
-  </si>
-  <si>
-    <t>2023-04-24 15시</t>
-  </si>
-  <si>
-    <t>2023-04-24 16시</t>
-  </si>
-  <si>
-    <t>2023-04-24 17시</t>
-  </si>
-  <si>
-    <t>2023-04-24 18시</t>
-  </si>
-  <si>
-    <t>2023-04-24 19시</t>
-  </si>
-  <si>
-    <t>2023-04-24 20시</t>
-  </si>
-  <si>
-    <t>2023-04-24 21시</t>
-  </si>
-  <si>
-    <t>2023-04-24 22시</t>
-  </si>
-  <si>
-    <t>2023-04-24 23시</t>
-  </si>
-  <si>
-    <t>2023-04-25 00시</t>
-  </si>
-  <si>
-    <t>2023-04-25 01시</t>
-  </si>
-  <si>
-    <t>2023-04-25 02시</t>
-  </si>
-  <si>
-    <t>2023-04-25 03시</t>
-  </si>
-  <si>
-    <t>2023-04-25 04시</t>
-  </si>
-  <si>
-    <t>2023-04-25 05시</t>
-  </si>
-  <si>
-    <t>2023-04-25 06시</t>
-  </si>
-  <si>
-    <t>2023-04-25 07시</t>
-  </si>
-  <si>
-    <t>2023-04-25 08시</t>
-  </si>
-  <si>
-    <t>2023-04-25 09시</t>
-  </si>
-  <si>
-    <t>2023-04-25 10시</t>
-  </si>
-  <si>
-    <t>2023-04-25 11시</t>
-  </si>
-  <si>
-    <t>2023-04-25 12시</t>
-  </si>
-  <si>
-    <t>2023-04-25 13시</t>
-  </si>
-  <si>
-    <t>2023-04-25 14시</t>
-  </si>
-  <si>
-    <t>2023-04-25 15시</t>
-  </si>
-  <si>
-    <t>2023-04-25 16시</t>
-  </si>
-  <si>
-    <t>2023-04-25 17시</t>
-  </si>
-  <si>
-    <t>2023-04-25 18시</t>
-  </si>
-  <si>
-    <t>2023-04-25 19시</t>
-  </si>
-  <si>
-    <t>2023-04-25 20시</t>
-  </si>
-  <si>
-    <t>2023-04-25 21시</t>
-  </si>
-  <si>
-    <t>2023-04-25 22시</t>
-  </si>
-  <si>
-    <t>2023-04-25 23시</t>
-  </si>
-  <si>
-    <t>2023-04-26 00시</t>
-  </si>
-  <si>
-    <t>2023-04-26 01시</t>
-  </si>
-  <si>
-    <t>2023-04-26 02시</t>
-  </si>
-  <si>
-    <t>2023-04-26 03시</t>
-  </si>
-  <si>
-    <t>2023-04-26 04시</t>
-  </si>
-  <si>
-    <t>2023-04-26 05시</t>
-  </si>
-  <si>
-    <t>2023-04-26 06시</t>
-  </si>
-  <si>
-    <t>2023-04-26 07시</t>
-  </si>
-  <si>
-    <t>2023-04-26 08시</t>
-  </si>
-  <si>
-    <t>2023-04-26 09시</t>
-  </si>
-  <si>
-    <t>2023-04-26 10시</t>
-  </si>
-  <si>
-    <t>2023-04-26 11시</t>
-  </si>
-  <si>
-    <t>2023-04-26 12시</t>
-  </si>
-  <si>
-    <t>2023-04-26 13시</t>
-  </si>
-  <si>
-    <t>2023-04-26 14시</t>
-  </si>
-  <si>
-    <t>2023-04-26 15시</t>
-  </si>
-  <si>
-    <t>2023-04-26 16시</t>
-  </si>
-  <si>
-    <t>2023-04-26 17시</t>
-  </si>
-  <si>
-    <t>2023-04-26 18시</t>
-  </si>
-  <si>
-    <t>2023-04-26 19시</t>
-  </si>
-  <si>
-    <t>2023-04-26 20시</t>
-  </si>
-  <si>
-    <t>2023-04-26 21시</t>
-  </si>
-  <si>
-    <t>2023-04-26 22시</t>
-  </si>
-  <si>
-    <t>2023-04-26 23시</t>
-  </si>
-  <si>
-    <t>2023-04-27 00시</t>
-  </si>
-  <si>
-    <t>2023-04-27 01시</t>
-  </si>
-  <si>
-    <t>2023-04-27 02시</t>
-  </si>
-  <si>
-    <t>2023-04-27 03시</t>
-  </si>
-  <si>
-    <t>2023-04-27 04시</t>
-  </si>
-  <si>
-    <t>2023-04-27 05시</t>
-  </si>
-  <si>
-    <t>2023-04-27 06시</t>
-  </si>
-  <si>
-    <t>2023-04-27 07시</t>
-  </si>
-  <si>
-    <t>2023-04-27 08시</t>
-  </si>
-  <si>
-    <t>2023-04-27 09시</t>
-  </si>
-  <si>
-    <t>2023-04-27 10시</t>
-  </si>
-  <si>
-    <t>2023-04-27 11시</t>
-  </si>
-  <si>
-    <t>2023-04-27 12시</t>
-  </si>
-  <si>
-    <t>2023-04-27 13시</t>
-  </si>
-  <si>
-    <t>2023-04-27 14시</t>
-  </si>
-  <si>
-    <t>2023-04-27 15시</t>
-  </si>
-  <si>
-    <t>2023-04-27 16시</t>
-  </si>
-  <si>
-    <t>2023-04-27 17시</t>
-  </si>
-  <si>
-    <t>2023-04-27 18시</t>
-  </si>
-  <si>
-    <t>2023-04-27 19시</t>
-  </si>
-  <si>
-    <t>2023-04-27 20시</t>
-  </si>
-  <si>
-    <t>2023-04-27 21시</t>
-  </si>
-  <si>
-    <t>2023-04-27 22시</t>
-  </si>
-  <si>
-    <t>2023-04-27 23시</t>
-  </si>
-  <si>
-    <t>2023-04-28 00시</t>
-  </si>
-  <si>
-    <t>2023-04-28 01시</t>
-  </si>
-  <si>
-    <t>2023-04-28 02시</t>
-  </si>
-  <si>
-    <t>2023-04-28 03시</t>
-  </si>
-  <si>
-    <t>2023-04-28 04시</t>
-  </si>
-  <si>
-    <t>2023-04-28 05시</t>
-  </si>
-  <si>
-    <t>2023-04-28 06시</t>
-  </si>
-  <si>
-    <t>2023-04-28 07시</t>
-  </si>
-  <si>
-    <t>2023-04-28 08시</t>
-  </si>
-  <si>
-    <t>2023-04-28 09시</t>
-  </si>
-  <si>
-    <t>2023-04-28 10시</t>
-  </si>
-  <si>
-    <t>2023-04-28 11시</t>
-  </si>
-  <si>
-    <t>2023-04-28 12시</t>
-  </si>
-  <si>
-    <t>2023-04-28 13시</t>
-  </si>
-  <si>
-    <t>2023-04-28 14시</t>
-  </si>
-  <si>
-    <t>2023-04-28 15시</t>
-  </si>
-  <si>
-    <t>2023-04-28 16시</t>
-  </si>
-  <si>
-    <t>2023-04-28 17시</t>
-  </si>
-  <si>
-    <t>2023-04-28 18시</t>
-  </si>
-  <si>
-    <t>2023-04-28 19시</t>
-  </si>
-  <si>
-    <t>2023-04-28 20시</t>
-  </si>
-  <si>
-    <t>2023-04-28 21시</t>
-  </si>
-  <si>
-    <t>2023-04-28 22시</t>
-  </si>
-  <si>
-    <t>2023-04-28 23시</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="맑은 고딕"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -392,17 +399,36 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="맑은 고딕"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC00000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -432,22 +458,38 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 테마">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -489,7 +531,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -521,9 +563,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -555,6 +615,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -730,14 +808,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L121"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A90" sqref="A90:XFD92"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="16.125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -772,12 +855,12 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:12">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>0</v>
+        <v>119</v>
       </c>
       <c r="C2">
         <v>236</v>
@@ -810,12 +893,12 @@
         <v>183</v>
       </c>
     </row>
-    <row r="3" spans="1:12">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C3">
         <v>211</v>
@@ -848,12 +931,12 @@
         <v>138</v>
       </c>
     </row>
-    <row r="4" spans="1:12">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C4">
         <v>145</v>
@@ -886,12 +969,12 @@
         <v>94</v>
       </c>
     </row>
-    <row r="5" spans="1:12">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C5">
         <v>162</v>
@@ -924,12 +1007,12 @@
         <v>86</v>
       </c>
     </row>
-    <row r="6" spans="1:12">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C6">
         <v>200</v>
@@ -962,12 +1045,12 @@
         <v>169</v>
       </c>
     </row>
-    <row r="7" spans="1:12">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C7">
         <v>374</v>
@@ -1000,12 +1083,12 @@
         <v>323</v>
       </c>
     </row>
-    <row r="8" spans="1:12">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C8">
         <v>633</v>
@@ -1038,12 +1121,12 @@
         <v>646</v>
       </c>
     </row>
-    <row r="9" spans="1:12">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C9">
         <v>1004</v>
@@ -1076,12 +1159,12 @@
         <v>1321</v>
       </c>
     </row>
-    <row r="10" spans="1:12">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C10">
         <v>1063</v>
@@ -1114,12 +1197,12 @@
         <v>1487</v>
       </c>
     </row>
-    <row r="11" spans="1:12">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C11">
         <v>981</v>
@@ -1152,12 +1235,12 @@
         <v>1038</v>
       </c>
     </row>
-    <row r="12" spans="1:12">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C12">
         <v>1011</v>
@@ -1190,12 +1273,12 @@
         <v>931</v>
       </c>
     </row>
-    <row r="13" spans="1:12">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C13">
         <v>982</v>
@@ -1228,12 +1311,12 @@
         <v>780</v>
       </c>
     </row>
-    <row r="14" spans="1:12">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C14">
         <v>923</v>
@@ -1266,12 +1349,12 @@
         <v>763</v>
       </c>
     </row>
-    <row r="15" spans="1:12">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C15">
         <v>817</v>
@@ -1304,12 +1387,12 @@
         <v>770</v>
       </c>
     </row>
-    <row r="16" spans="1:12">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C16">
         <v>1013</v>
@@ -1342,12 +1425,12 @@
         <v>823</v>
       </c>
     </row>
-    <row r="17" spans="1:12">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C17">
         <v>1161</v>
@@ -1380,12 +1463,12 @@
         <v>864</v>
       </c>
     </row>
-    <row r="18" spans="1:12">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C18">
         <v>1208</v>
@@ -1418,88 +1501,88 @@
         <v>942</v>
       </c>
     </row>
-    <row r="19" spans="1:12">
-      <c r="A19" s="1">
+    <row r="19" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="4">
         <v>17</v>
       </c>
-      <c r="B19" t="s">
+      <c r="B19" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C19" s="5">
+        <v>1351</v>
+      </c>
+      <c r="D19" s="5">
+        <v>1259</v>
+      </c>
+      <c r="E19" s="5">
+        <v>1892</v>
+      </c>
+      <c r="F19" s="5">
+        <v>1555</v>
+      </c>
+      <c r="G19" s="5">
+        <v>1603</v>
+      </c>
+      <c r="H19" s="5">
+        <v>1605</v>
+      </c>
+      <c r="I19" s="5">
+        <v>1523</v>
+      </c>
+      <c r="J19" s="5">
+        <v>1424</v>
+      </c>
+      <c r="K19" s="5">
+        <v>1148</v>
+      </c>
+      <c r="L19" s="5">
+        <v>1009</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="4">
+        <v>18</v>
+      </c>
+      <c r="B20" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="C19">
-        <v>1351</v>
-      </c>
-      <c r="D19">
-        <v>1259</v>
-      </c>
-      <c r="E19">
-        <v>1892</v>
-      </c>
-      <c r="F19">
-        <v>1555</v>
-      </c>
-      <c r="G19">
-        <v>1603</v>
-      </c>
-      <c r="H19">
-        <v>1605</v>
-      </c>
-      <c r="I19">
-        <v>1523</v>
-      </c>
-      <c r="J19">
-        <v>1424</v>
-      </c>
-      <c r="K19">
-        <v>1148</v>
-      </c>
-      <c r="L19">
-        <v>1009</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12">
-      <c r="A20" s="1">
-        <v>18</v>
-      </c>
-      <c r="B20" t="s">
-        <v>18</v>
-      </c>
-      <c r="C20">
+      <c r="C20" s="5">
         <v>1406</v>
       </c>
-      <c r="D20">
+      <c r="D20" s="5">
         <v>1187</v>
       </c>
-      <c r="E20">
+      <c r="E20" s="5">
         <v>1959</v>
       </c>
-      <c r="F20">
+      <c r="F20" s="5">
         <v>1449</v>
       </c>
-      <c r="G20">
+      <c r="G20" s="5">
         <v>1591</v>
       </c>
-      <c r="H20">
+      <c r="H20" s="5">
         <v>1693</v>
       </c>
-      <c r="I20">
+      <c r="I20" s="5">
         <v>1537</v>
       </c>
-      <c r="J20">
+      <c r="J20" s="5">
         <v>1851</v>
       </c>
-      <c r="K20">
+      <c r="K20" s="5">
         <v>1266</v>
       </c>
-      <c r="L20">
+      <c r="L20" s="5">
         <v>1083</v>
       </c>
     </row>
-    <row r="21" spans="1:12">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C21">
         <v>1118</v>
@@ -1532,12 +1615,12 @@
         <v>657</v>
       </c>
     </row>
-    <row r="22" spans="1:12">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C22">
         <v>945</v>
@@ -1570,12 +1653,12 @@
         <v>631</v>
       </c>
     </row>
-    <row r="23" spans="1:12">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C23">
         <v>707</v>
@@ -1608,12 +1691,12 @@
         <v>520</v>
       </c>
     </row>
-    <row r="24" spans="1:12">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C24">
         <v>480</v>
@@ -1646,12 +1729,12 @@
         <v>385</v>
       </c>
     </row>
-    <row r="25" spans="1:12">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C25">
         <v>378</v>
@@ -1684,12 +1767,12 @@
         <v>276</v>
       </c>
     </row>
-    <row r="26" spans="1:12">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A26" s="1">
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C26">
         <v>276</v>
@@ -1722,12 +1805,12 @@
         <v>206</v>
       </c>
     </row>
-    <row r="27" spans="1:12">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A27" s="1">
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C27">
         <v>264</v>
@@ -1760,12 +1843,12 @@
         <v>167</v>
       </c>
     </row>
-    <row r="28" spans="1:12">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A28" s="1">
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C28">
         <v>221</v>
@@ -1798,12 +1881,12 @@
         <v>112</v>
       </c>
     </row>
-    <row r="29" spans="1:12">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A29" s="1">
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C29">
         <v>191</v>
@@ -1836,12 +1919,12 @@
         <v>92</v>
       </c>
     </row>
-    <row r="30" spans="1:12">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A30" s="1">
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C30">
         <v>223</v>
@@ -1874,12 +1957,12 @@
         <v>155</v>
       </c>
     </row>
-    <row r="31" spans="1:12">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A31" s="1">
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C31">
         <v>398</v>
@@ -1912,12 +1995,12 @@
         <v>291</v>
       </c>
     </row>
-    <row r="32" spans="1:12">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A32" s="1">
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C32">
         <v>441</v>
@@ -1950,12 +2033,12 @@
         <v>633</v>
       </c>
     </row>
-    <row r="33" spans="1:12">
+    <row r="33" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A33" s="1">
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C33">
         <v>944</v>
@@ -1988,12 +2071,12 @@
         <v>1221</v>
       </c>
     </row>
-    <row r="34" spans="1:12">
+    <row r="34" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A34" s="1">
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C34">
         <v>1146</v>
@@ -2026,12 +2109,12 @@
         <v>1506</v>
       </c>
     </row>
-    <row r="35" spans="1:12">
+    <row r="35" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A35" s="1">
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C35">
         <v>1027</v>
@@ -2064,12 +2147,12 @@
         <v>1067</v>
       </c>
     </row>
-    <row r="36" spans="1:12">
+    <row r="36" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A36" s="1">
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C36">
         <v>1082</v>
@@ -2102,12 +2185,12 @@
         <v>859</v>
       </c>
     </row>
-    <row r="37" spans="1:12">
+    <row r="37" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A37" s="1">
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C37">
         <v>944</v>
@@ -2140,12 +2223,12 @@
         <v>776</v>
       </c>
     </row>
-    <row r="38" spans="1:12">
+    <row r="38" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A38" s="1">
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C38">
         <v>928</v>
@@ -2178,12 +2261,12 @@
         <v>750</v>
       </c>
     </row>
-    <row r="39" spans="1:12">
+    <row r="39" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A39" s="1">
         <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C39">
         <v>895</v>
@@ -2216,12 +2299,12 @@
         <v>851</v>
       </c>
     </row>
-    <row r="40" spans="1:12">
+    <row r="40" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A40" s="1">
         <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C40">
         <v>961</v>
@@ -2254,12 +2337,12 @@
         <v>801</v>
       </c>
     </row>
-    <row r="41" spans="1:12">
+    <row r="41" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A41" s="1">
         <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C41">
         <v>1138</v>
@@ -2292,12 +2375,12 @@
         <v>901</v>
       </c>
     </row>
-    <row r="42" spans="1:12">
+    <row r="42" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A42" s="1">
         <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C42">
         <v>1242</v>
@@ -2330,12 +2413,12 @@
         <v>893</v>
       </c>
     </row>
-    <row r="43" spans="1:12">
+    <row r="43" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A43" s="1">
         <v>41</v>
       </c>
       <c r="B43" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C43">
         <v>1350</v>
@@ -2368,12 +2451,12 @@
         <v>959</v>
       </c>
     </row>
-    <row r="44" spans="1:12">
+    <row r="44" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A44" s="1">
         <v>42</v>
       </c>
       <c r="B44" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C44">
         <v>1417</v>
@@ -2406,88 +2489,88 @@
         <v>1012</v>
       </c>
     </row>
-    <row r="45" spans="1:12">
-      <c r="A45" s="1">
+    <row r="45" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A45" s="4">
         <v>43</v>
       </c>
-      <c r="B45" t="s">
+      <c r="B45" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="C45" s="5">
+        <v>1134</v>
+      </c>
+      <c r="D45" s="5">
+        <v>1082</v>
+      </c>
+      <c r="E45" s="5">
+        <v>1625</v>
+      </c>
+      <c r="F45" s="5">
+        <v>1112</v>
+      </c>
+      <c r="G45" s="5">
+        <v>1214</v>
+      </c>
+      <c r="H45" s="5">
+        <v>1098</v>
+      </c>
+      <c r="I45" s="5">
+        <v>1167</v>
+      </c>
+      <c r="J45" s="5">
+        <v>1587</v>
+      </c>
+      <c r="K45" s="5">
+        <v>851</v>
+      </c>
+      <c r="L45" s="5">
+        <v>739</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A46" s="4">
+        <v>44</v>
+      </c>
+      <c r="B46" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="C45">
-        <v>1134</v>
-      </c>
-      <c r="D45">
-        <v>1082</v>
-      </c>
-      <c r="E45">
-        <v>1625</v>
-      </c>
-      <c r="F45">
-        <v>1112</v>
-      </c>
-      <c r="G45">
-        <v>1214</v>
-      </c>
-      <c r="H45">
-        <v>1098</v>
-      </c>
-      <c r="I45">
-        <v>1167</v>
-      </c>
-      <c r="J45">
-        <v>1587</v>
-      </c>
-      <c r="K45">
-        <v>851</v>
-      </c>
-      <c r="L45">
-        <v>739</v>
-      </c>
-    </row>
-    <row r="46" spans="1:12">
-      <c r="A46" s="1">
-        <v>44</v>
-      </c>
-      <c r="B46" t="s">
-        <v>44</v>
-      </c>
-      <c r="C46">
+      <c r="C46" s="5">
         <v>986</v>
       </c>
-      <c r="D46">
+      <c r="D46" s="5">
         <v>842</v>
       </c>
-      <c r="E46">
+      <c r="E46" s="5">
         <v>1406</v>
       </c>
-      <c r="F46">
+      <c r="F46" s="5">
         <v>861</v>
       </c>
-      <c r="G46">
+      <c r="G46" s="5">
         <v>916</v>
       </c>
-      <c r="H46">
+      <c r="H46" s="5">
         <v>934</v>
       </c>
-      <c r="I46">
+      <c r="I46" s="5">
         <v>916</v>
       </c>
-      <c r="J46">
+      <c r="J46" s="5">
         <v>1312</v>
       </c>
-      <c r="K46">
+      <c r="K46" s="5">
         <v>576</v>
       </c>
-      <c r="L46">
+      <c r="L46" s="5">
         <v>661</v>
       </c>
     </row>
-    <row r="47" spans="1:12">
+    <row r="47" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A47" s="1">
         <v>45</v>
       </c>
       <c r="B47" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C47">
         <v>689</v>
@@ -2520,12 +2603,12 @@
         <v>522</v>
       </c>
     </row>
-    <row r="48" spans="1:12">
+    <row r="48" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A48" s="1">
         <v>46</v>
       </c>
       <c r="B48" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C48">
         <v>529</v>
@@ -2558,12 +2641,12 @@
         <v>405</v>
       </c>
     </row>
-    <row r="49" spans="1:12">
+    <row r="49" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A49" s="1">
         <v>47</v>
       </c>
       <c r="B49" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C49">
         <v>393</v>
@@ -2596,12 +2679,12 @@
         <v>290</v>
       </c>
     </row>
-    <row r="50" spans="1:12">
+    <row r="50" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A50" s="1">
         <v>48</v>
       </c>
       <c r="B50" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C50">
         <v>298</v>
@@ -2634,12 +2717,12 @@
         <v>201</v>
       </c>
     </row>
-    <row r="51" spans="1:12">
+    <row r="51" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A51" s="1">
         <v>49</v>
       </c>
       <c r="B51" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C51">
         <v>216</v>
@@ -2672,12 +2755,12 @@
         <v>137</v>
       </c>
     </row>
-    <row r="52" spans="1:12">
+    <row r="52" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A52" s="1">
         <v>50</v>
       </c>
       <c r="B52" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C52">
         <v>250</v>
@@ -2710,12 +2793,12 @@
         <v>95</v>
       </c>
     </row>
-    <row r="53" spans="1:12">
+    <row r="53" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A53" s="1">
         <v>51</v>
       </c>
       <c r="B53" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C53">
         <v>175</v>
@@ -2748,12 +2831,12 @@
         <v>101</v>
       </c>
     </row>
-    <row r="54" spans="1:12">
+    <row r="54" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A54" s="1">
         <v>52</v>
       </c>
       <c r="B54" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C54">
         <v>238</v>
@@ -2786,12 +2869,12 @@
         <v>155</v>
       </c>
     </row>
-    <row r="55" spans="1:12">
+    <row r="55" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A55" s="1">
         <v>53</v>
       </c>
       <c r="B55" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C55">
         <v>394</v>
@@ -2824,12 +2907,12 @@
         <v>329</v>
       </c>
     </row>
-    <row r="56" spans="1:12">
+    <row r="56" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A56" s="1">
         <v>54</v>
       </c>
       <c r="B56" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C56">
         <v>618</v>
@@ -2862,12 +2945,12 @@
         <v>648</v>
       </c>
     </row>
-    <row r="57" spans="1:12">
+    <row r="57" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A57" s="1">
         <v>55</v>
       </c>
       <c r="B57" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C57">
         <v>956</v>
@@ -2900,50 +2983,50 @@
         <v>1244</v>
       </c>
     </row>
-    <row r="58" spans="1:12">
-      <c r="A58" s="1">
+    <row r="58" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A58" s="2">
         <v>56</v>
       </c>
-      <c r="B58" t="s">
-        <v>56</v>
-      </c>
-      <c r="C58">
+      <c r="B58" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="C58" s="3">
         <v>1005</v>
       </c>
-      <c r="D58">
+      <c r="D58" s="3">
         <v>1553</v>
       </c>
-      <c r="E58">
+      <c r="E58" s="3">
         <v>1180</v>
       </c>
-      <c r="F58">
+      <c r="F58" s="3">
         <v>1682</v>
       </c>
-      <c r="G58">
+      <c r="G58" s="3">
         <v>1911</v>
       </c>
-      <c r="H58">
+      <c r="H58" s="3">
         <v>1424</v>
       </c>
-      <c r="I58">
+      <c r="I58" s="3">
         <v>1628</v>
       </c>
-      <c r="J58">
+      <c r="J58" s="3">
         <v>1494</v>
       </c>
-      <c r="K58">
+      <c r="K58" s="3">
         <v>1084</v>
       </c>
-      <c r="L58">
+      <c r="L58" s="3">
         <v>1454</v>
       </c>
     </row>
-    <row r="59" spans="1:12">
+    <row r="59" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A59" s="1">
         <v>57</v>
       </c>
       <c r="B59" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C59">
         <v>911</v>
@@ -2976,12 +3059,12 @@
         <v>905</v>
       </c>
     </row>
-    <row r="60" spans="1:12">
+    <row r="60" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A60" s="1">
         <v>58</v>
       </c>
       <c r="B60" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C60">
         <v>855</v>
@@ -3014,12 +3097,12 @@
         <v>743</v>
       </c>
     </row>
-    <row r="61" spans="1:12">
+    <row r="61" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A61" s="1">
         <v>59</v>
       </c>
       <c r="B61" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C61">
         <v>787</v>
@@ -3052,12 +3135,12 @@
         <v>572</v>
       </c>
     </row>
-    <row r="62" spans="1:12">
+    <row r="62" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A62" s="1">
         <v>60</v>
       </c>
       <c r="B62" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C62">
         <v>853</v>
@@ -3090,12 +3173,12 @@
         <v>741</v>
       </c>
     </row>
-    <row r="63" spans="1:12">
+    <row r="63" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A63" s="1">
         <v>61</v>
       </c>
       <c r="B63" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C63">
         <v>965</v>
@@ -3128,12 +3211,12 @@
         <v>780</v>
       </c>
     </row>
-    <row r="64" spans="1:12">
+    <row r="64" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A64" s="1">
         <v>62</v>
       </c>
       <c r="B64" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C64">
         <v>1027</v>
@@ -3166,12 +3249,12 @@
         <v>873</v>
       </c>
     </row>
-    <row r="65" spans="1:12">
+    <row r="65" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A65" s="1">
         <v>63</v>
       </c>
       <c r="B65" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C65">
         <v>1117</v>
@@ -3204,12 +3287,12 @@
         <v>883</v>
       </c>
     </row>
-    <row r="66" spans="1:12">
+    <row r="66" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A66" s="1">
         <v>64</v>
       </c>
       <c r="B66" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C66">
         <v>1238</v>
@@ -3242,88 +3325,88 @@
         <v>837</v>
       </c>
     </row>
-    <row r="67" spans="1:12">
-      <c r="A67" s="1">
+    <row r="67" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A67" s="4">
         <v>65</v>
       </c>
-      <c r="B67" t="s">
+      <c r="B67" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="C67" s="5">
+        <v>1412</v>
+      </c>
+      <c r="D67" s="5">
+        <v>1207</v>
+      </c>
+      <c r="E67" s="5">
+        <v>1941</v>
+      </c>
+      <c r="F67" s="5">
+        <v>1439</v>
+      </c>
+      <c r="G67" s="5">
+        <v>1502</v>
+      </c>
+      <c r="H67" s="5">
+        <v>1807</v>
+      </c>
+      <c r="I67" s="5">
+        <v>1496</v>
+      </c>
+      <c r="J67" s="5">
+        <v>1769</v>
+      </c>
+      <c r="K67" s="5">
+        <v>1264</v>
+      </c>
+      <c r="L67" s="5">
+        <v>981</v>
+      </c>
+    </row>
+    <row r="68" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A68" s="4">
+        <v>66</v>
+      </c>
+      <c r="B68" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="C67">
-        <v>1412</v>
-      </c>
-      <c r="D67">
-        <v>1207</v>
-      </c>
-      <c r="E67">
-        <v>1941</v>
-      </c>
-      <c r="F67">
-        <v>1439</v>
-      </c>
-      <c r="G67">
-        <v>1502</v>
-      </c>
-      <c r="H67">
-        <v>1807</v>
-      </c>
-      <c r="I67">
-        <v>1496</v>
-      </c>
-      <c r="J67">
-        <v>1769</v>
-      </c>
-      <c r="K67">
-        <v>1264</v>
-      </c>
-      <c r="L67">
-        <v>981</v>
-      </c>
-    </row>
-    <row r="68" spans="1:12">
-      <c r="A68" s="1">
-        <v>66</v>
-      </c>
-      <c r="B68" t="s">
-        <v>66</v>
-      </c>
-      <c r="C68">
+      <c r="C68" s="5">
         <v>1421</v>
       </c>
-      <c r="D68">
+      <c r="D68" s="5">
         <v>1195</v>
       </c>
-      <c r="E68">
+      <c r="E68" s="5">
         <v>1956</v>
       </c>
-      <c r="F68">
+      <c r="F68" s="5">
         <v>1444</v>
       </c>
-      <c r="G68">
+      <c r="G68" s="5">
         <v>1569</v>
       </c>
-      <c r="H68">
+      <c r="H68" s="5">
         <v>1760</v>
       </c>
-      <c r="I68">
+      <c r="I68" s="5">
         <v>1501</v>
       </c>
-      <c r="J68">
+      <c r="J68" s="5">
         <v>1846</v>
       </c>
-      <c r="K68">
+      <c r="K68" s="5">
         <v>1262</v>
       </c>
-      <c r="L68">
+      <c r="L68" s="5">
         <v>1069</v>
       </c>
     </row>
-    <row r="69" spans="1:12">
+    <row r="69" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A69" s="1">
         <v>67</v>
       </c>
       <c r="B69" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C69">
         <v>1147</v>
@@ -3356,12 +3439,12 @@
         <v>807</v>
       </c>
     </row>
-    <row r="70" spans="1:12">
+    <row r="70" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A70" s="1">
         <v>68</v>
       </c>
       <c r="B70" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C70">
         <v>854</v>
@@ -3394,12 +3477,12 @@
         <v>656</v>
       </c>
     </row>
-    <row r="71" spans="1:12">
+    <row r="71" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A71" s="1">
         <v>69</v>
       </c>
       <c r="B71" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C71">
         <v>666</v>
@@ -3432,12 +3515,12 @@
         <v>587</v>
       </c>
     </row>
-    <row r="72" spans="1:12">
+    <row r="72" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A72" s="1">
         <v>70</v>
       </c>
       <c r="B72" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C72">
         <v>498</v>
@@ -3470,12 +3553,12 @@
         <v>434</v>
       </c>
     </row>
-    <row r="73" spans="1:12">
+    <row r="73" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A73" s="1">
         <v>71</v>
       </c>
       <c r="B73" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C73">
         <v>438</v>
@@ -3508,12 +3591,12 @@
         <v>324</v>
       </c>
     </row>
-    <row r="74" spans="1:12">
+    <row r="74" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A74" s="1">
         <v>72</v>
       </c>
       <c r="B74" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C74">
         <v>280</v>
@@ -3546,12 +3629,12 @@
         <v>212</v>
       </c>
     </row>
-    <row r="75" spans="1:12">
+    <row r="75" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A75" s="1">
         <v>73</v>
       </c>
       <c r="B75" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C75">
         <v>253</v>
@@ -3584,12 +3667,12 @@
         <v>162</v>
       </c>
     </row>
-    <row r="76" spans="1:12">
+    <row r="76" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A76" s="1">
         <v>74</v>
       </c>
       <c r="B76" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C76">
         <v>159</v>
@@ -3622,12 +3705,12 @@
         <v>101</v>
       </c>
     </row>
-    <row r="77" spans="1:12">
+    <row r="77" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A77" s="1">
         <v>75</v>
       </c>
       <c r="B77" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C77">
         <v>162</v>
@@ -3660,12 +3743,12 @@
         <v>100</v>
       </c>
     </row>
-    <row r="78" spans="1:12">
+    <row r="78" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A78" s="1">
         <v>76</v>
       </c>
       <c r="B78" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C78">
         <v>215</v>
@@ -3698,12 +3781,12 @@
         <v>152</v>
       </c>
     </row>
-    <row r="79" spans="1:12">
+    <row r="79" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A79" s="1">
         <v>77</v>
       </c>
       <c r="B79" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C79">
         <v>442</v>
@@ -3736,12 +3819,12 @@
         <v>294</v>
       </c>
     </row>
-    <row r="80" spans="1:12">
+    <row r="80" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A80" s="1">
         <v>78</v>
       </c>
       <c r="B80" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C80">
         <v>617</v>
@@ -3774,12 +3857,12 @@
         <v>618</v>
       </c>
     </row>
-    <row r="81" spans="1:12">
+    <row r="81" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A81" s="1">
         <v>79</v>
       </c>
       <c r="B81" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C81">
         <v>963</v>
@@ -3812,12 +3895,12 @@
         <v>1271</v>
       </c>
     </row>
-    <row r="82" spans="1:12">
+    <row r="82" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A82" s="1">
         <v>80</v>
       </c>
       <c r="B82" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C82">
         <v>1056</v>
@@ -3850,12 +3933,12 @@
         <v>1493</v>
       </c>
     </row>
-    <row r="83" spans="1:12">
+    <row r="83" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A83" s="1">
         <v>81</v>
       </c>
       <c r="B83" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C83">
         <v>981</v>
@@ -3888,12 +3971,12 @@
         <v>966</v>
       </c>
     </row>
-    <row r="84" spans="1:12">
+    <row r="84" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A84" s="1">
         <v>82</v>
       </c>
       <c r="B84" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C84">
         <v>950</v>
@@ -3926,12 +4009,12 @@
         <v>840</v>
       </c>
     </row>
-    <row r="85" spans="1:12">
+    <row r="85" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A85" s="1">
         <v>83</v>
       </c>
       <c r="B85" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C85">
         <v>956</v>
@@ -3964,12 +4047,12 @@
         <v>786</v>
       </c>
     </row>
-    <row r="86" spans="1:12">
+    <row r="86" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A86" s="1">
         <v>84</v>
       </c>
       <c r="B86" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C86">
         <v>751</v>
@@ -4002,12 +4085,12 @@
         <v>694</v>
       </c>
     </row>
-    <row r="87" spans="1:12">
+    <row r="87" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A87" s="1">
         <v>85</v>
       </c>
       <c r="B87" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C87">
         <v>824</v>
@@ -4040,12 +4123,12 @@
         <v>839</v>
       </c>
     </row>
-    <row r="88" spans="1:12">
+    <row r="88" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A88" s="1">
         <v>86</v>
       </c>
       <c r="B88" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C88">
         <v>906</v>
@@ -4078,12 +4161,12 @@
         <v>846</v>
       </c>
     </row>
-    <row r="89" spans="1:12">
+    <row r="89" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A89" s="1">
         <v>87</v>
       </c>
       <c r="B89" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C89">
         <v>1055</v>
@@ -4116,126 +4199,126 @@
         <v>881</v>
       </c>
     </row>
-    <row r="90" spans="1:12">
-      <c r="A90" s="1">
+    <row r="90" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A90" s="4">
         <v>88</v>
       </c>
-      <c r="B90" t="s">
+      <c r="B90" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="C90" s="5">
+        <v>1192</v>
+      </c>
+      <c r="D90" s="5">
+        <v>1177</v>
+      </c>
+      <c r="E90" s="5">
+        <v>1700</v>
+      </c>
+      <c r="F90" s="5">
+        <v>1475</v>
+      </c>
+      <c r="G90" s="5">
+        <v>1474</v>
+      </c>
+      <c r="H90" s="5">
+        <v>1680</v>
+      </c>
+      <c r="I90" s="5">
+        <v>1345</v>
+      </c>
+      <c r="J90" s="5">
+        <v>1565</v>
+      </c>
+      <c r="K90" s="5">
+        <v>1011</v>
+      </c>
+      <c r="L90" s="5">
+        <v>868</v>
+      </c>
+    </row>
+    <row r="91" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A91" s="4">
+        <v>89</v>
+      </c>
+      <c r="B91" s="5" t="s">
         <v>88</v>
       </c>
-      <c r="C90">
-        <v>1192</v>
-      </c>
-      <c r="D90">
-        <v>1177</v>
-      </c>
-      <c r="E90">
-        <v>1700</v>
-      </c>
-      <c r="F90">
-        <v>1475</v>
-      </c>
-      <c r="G90">
-        <v>1474</v>
-      </c>
-      <c r="H90">
-        <v>1680</v>
-      </c>
-      <c r="I90">
-        <v>1345</v>
-      </c>
-      <c r="J90">
-        <v>1565</v>
-      </c>
-      <c r="K90">
-        <v>1011</v>
-      </c>
-      <c r="L90">
-        <v>868</v>
-      </c>
-    </row>
-    <row r="91" spans="1:12">
-      <c r="A91" s="1">
+      <c r="C91" s="5">
+        <v>1299</v>
+      </c>
+      <c r="D91" s="5">
+        <v>1222</v>
+      </c>
+      <c r="E91" s="5">
+        <v>1910</v>
+      </c>
+      <c r="F91" s="5">
+        <v>1510</v>
+      </c>
+      <c r="G91" s="5">
+        <v>1549</v>
+      </c>
+      <c r="H91" s="5">
+        <v>1653</v>
+      </c>
+      <c r="I91" s="5">
+        <v>1537</v>
+      </c>
+      <c r="J91" s="5">
+        <v>1764</v>
+      </c>
+      <c r="K91" s="5">
+        <v>1254</v>
+      </c>
+      <c r="L91" s="5">
+        <v>998</v>
+      </c>
+    </row>
+    <row r="92" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A92" s="4">
+        <v>90</v>
+      </c>
+      <c r="B92" s="5" t="s">
         <v>89</v>
       </c>
-      <c r="B91" t="s">
-        <v>89</v>
-      </c>
-      <c r="C91">
-        <v>1299</v>
-      </c>
-      <c r="D91">
-        <v>1222</v>
-      </c>
-      <c r="E91">
-        <v>1910</v>
-      </c>
-      <c r="F91">
-        <v>1510</v>
-      </c>
-      <c r="G91">
-        <v>1549</v>
-      </c>
-      <c r="H91">
-        <v>1653</v>
-      </c>
-      <c r="I91">
-        <v>1537</v>
-      </c>
-      <c r="J91">
-        <v>1764</v>
-      </c>
-      <c r="K91">
-        <v>1254</v>
-      </c>
-      <c r="L91">
-        <v>998</v>
-      </c>
-    </row>
-    <row r="92" spans="1:12">
-      <c r="A92" s="1">
-        <v>90</v>
-      </c>
-      <c r="B92" t="s">
-        <v>90</v>
-      </c>
-      <c r="C92">
+      <c r="C92" s="5">
         <v>1395</v>
       </c>
-      <c r="D92">
+      <c r="D92" s="5">
         <v>1189</v>
       </c>
-      <c r="E92">
+      <c r="E92" s="5">
         <v>1943</v>
       </c>
-      <c r="F92">
+      <c r="F92" s="5">
         <v>1422</v>
       </c>
-      <c r="G92">
+      <c r="G92" s="5">
         <v>1598</v>
       </c>
-      <c r="H92">
+      <c r="H92" s="5">
         <v>1794</v>
       </c>
-      <c r="I92">
+      <c r="I92" s="5">
         <v>1440</v>
       </c>
-      <c r="J92">
+      <c r="J92" s="5">
         <v>1785</v>
       </c>
-      <c r="K92">
+      <c r="K92" s="5">
         <v>1259</v>
       </c>
-      <c r="L92">
+      <c r="L92" s="5">
         <v>1035</v>
       </c>
     </row>
-    <row r="93" spans="1:12">
+    <row r="93" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A93" s="1">
         <v>91</v>
       </c>
       <c r="B93" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C93">
         <v>1131</v>
@@ -4268,12 +4351,12 @@
         <v>833</v>
       </c>
     </row>
-    <row r="94" spans="1:12">
+    <row r="94" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A94" s="1">
         <v>92</v>
       </c>
       <c r="B94" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C94">
         <v>958</v>
@@ -4306,12 +4389,12 @@
         <v>704</v>
       </c>
     </row>
-    <row r="95" spans="1:12">
+    <row r="95" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A95" s="1">
         <v>93</v>
       </c>
       <c r="B95" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C95">
         <v>750</v>
@@ -4344,12 +4427,12 @@
         <v>573</v>
       </c>
     </row>
-    <row r="96" spans="1:12">
+    <row r="96" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A96" s="1">
         <v>94</v>
       </c>
       <c r="B96" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C96">
         <v>516</v>
@@ -4382,12 +4465,12 @@
         <v>434</v>
       </c>
     </row>
-    <row r="97" spans="1:12">
+    <row r="97" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A97" s="1">
         <v>95</v>
       </c>
       <c r="B97" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C97">
         <v>420</v>
@@ -4420,12 +4503,12 @@
         <v>326</v>
       </c>
     </row>
-    <row r="98" spans="1:12">
+    <row r="98" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A98" s="1">
         <v>96</v>
       </c>
       <c r="B98" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C98">
         <v>332</v>
@@ -4458,12 +4541,12 @@
         <v>251</v>
       </c>
     </row>
-    <row r="99" spans="1:12">
+    <row r="99" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A99" s="1">
         <v>97</v>
       </c>
       <c r="B99" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C99">
         <v>249</v>
@@ -4496,12 +4579,12 @@
         <v>158</v>
       </c>
     </row>
-    <row r="100" spans="1:12">
+    <row r="100" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A100" s="1">
         <v>98</v>
       </c>
       <c r="B100" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C100">
         <v>207</v>
@@ -4534,12 +4617,12 @@
         <v>124</v>
       </c>
     </row>
-    <row r="101" spans="1:12">
+    <row r="101" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A101" s="1">
         <v>99</v>
       </c>
       <c r="B101" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C101">
         <v>211</v>
@@ -4572,12 +4655,12 @@
         <v>112</v>
       </c>
     </row>
-    <row r="102" spans="1:12">
+    <row r="102" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A102" s="1">
         <v>100</v>
       </c>
       <c r="B102" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C102">
         <v>220</v>
@@ -4610,12 +4693,12 @@
         <v>169</v>
       </c>
     </row>
-    <row r="103" spans="1:12">
+    <row r="103" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A103" s="1">
         <v>101</v>
       </c>
       <c r="B103" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C103">
         <v>453</v>
@@ -4648,12 +4731,12 @@
         <v>313</v>
       </c>
     </row>
-    <row r="104" spans="1:12">
+    <row r="104" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A104" s="1">
         <v>102</v>
       </c>
       <c r="B104" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C104">
         <v>618</v>
@@ -4686,12 +4769,12 @@
         <v>606</v>
       </c>
     </row>
-    <row r="105" spans="1:12">
+    <row r="105" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A105" s="1">
         <v>103</v>
       </c>
       <c r="B105" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C105">
         <v>955</v>
@@ -4724,12 +4807,12 @@
         <v>1239</v>
       </c>
     </row>
-    <row r="106" spans="1:12">
+    <row r="106" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A106" s="1">
         <v>104</v>
       </c>
       <c r="B106" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C106">
         <v>1000</v>
@@ -4762,12 +4845,12 @@
         <v>1460</v>
       </c>
     </row>
-    <row r="107" spans="1:12">
+    <row r="107" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A107" s="1">
         <v>105</v>
       </c>
       <c r="B107" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C107">
         <v>1002</v>
@@ -4800,12 +4883,12 @@
         <v>1031</v>
       </c>
     </row>
-    <row r="108" spans="1:12">
+    <row r="108" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A108" s="1">
         <v>106</v>
       </c>
       <c r="B108" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C108">
         <v>1028</v>
@@ -4838,12 +4921,12 @@
         <v>893</v>
       </c>
     </row>
-    <row r="109" spans="1:12">
+    <row r="109" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A109" s="1">
         <v>107</v>
       </c>
       <c r="B109" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C109">
         <v>913</v>
@@ -4876,12 +4959,12 @@
         <v>807</v>
       </c>
     </row>
-    <row r="110" spans="1:12">
+    <row r="110" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A110" s="1">
         <v>108</v>
       </c>
       <c r="B110" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C110">
         <v>778</v>
@@ -4914,12 +4997,12 @@
         <v>736</v>
       </c>
     </row>
-    <row r="111" spans="1:12">
+    <row r="111" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A111" s="1">
         <v>109</v>
       </c>
       <c r="B111" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C111">
         <v>862</v>
@@ -4952,12 +5035,12 @@
         <v>924</v>
       </c>
     </row>
-    <row r="112" spans="1:12">
+    <row r="112" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A112" s="1">
         <v>110</v>
       </c>
       <c r="B112" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C112">
         <v>1048</v>
@@ -4990,12 +5073,12 @@
         <v>881</v>
       </c>
     </row>
-    <row r="113" spans="1:12">
+    <row r="113" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A113" s="1">
         <v>111</v>
       </c>
       <c r="B113" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C113">
         <v>1142</v>
@@ -5028,12 +5111,12 @@
         <v>920</v>
       </c>
     </row>
-    <row r="114" spans="1:12">
+    <row r="114" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A114" s="1">
         <v>112</v>
       </c>
       <c r="B114" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C114">
         <v>1267</v>
@@ -5066,12 +5149,12 @@
         <v>994</v>
       </c>
     </row>
-    <row r="115" spans="1:12">
+    <row r="115" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A115" s="1">
         <v>113</v>
       </c>
       <c r="B115" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C115">
         <v>1340</v>
@@ -5104,12 +5187,12 @@
         <v>1071</v>
       </c>
     </row>
-    <row r="116" spans="1:12">
+    <row r="116" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A116" s="1">
         <v>114</v>
       </c>
       <c r="B116" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C116">
         <v>1372</v>
@@ -5142,12 +5225,12 @@
         <v>1045</v>
       </c>
     </row>
-    <row r="117" spans="1:12">
+    <row r="117" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A117" s="1">
         <v>115</v>
       </c>
       <c r="B117" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C117">
         <v>1234</v>
@@ -5180,12 +5263,12 @@
         <v>844</v>
       </c>
     </row>
-    <row r="118" spans="1:12">
+    <row r="118" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A118" s="1">
         <v>116</v>
       </c>
       <c r="B118" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C118">
         <v>1060</v>
@@ -5218,12 +5301,12 @@
         <v>794</v>
       </c>
     </row>
-    <row r="119" spans="1:12">
+    <row r="119" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A119" s="1">
         <v>117</v>
       </c>
       <c r="B119" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C119">
         <v>845</v>
@@ -5256,12 +5339,12 @@
         <v>607</v>
       </c>
     </row>
-    <row r="120" spans="1:12">
+    <row r="120" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A120" s="1">
         <v>118</v>
       </c>
       <c r="B120" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C120">
         <v>682</v>
@@ -5294,12 +5377,12 @@
         <v>489</v>
       </c>
     </row>
-    <row r="121" spans="1:12">
+    <row r="121" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A121" s="1">
         <v>119</v>
       </c>
       <c r="B121" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C121">
         <v>429</v>
@@ -5333,6 +5416,7 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>